--- a/server/table.xlsx
+++ b/server/table.xlsx
@@ -15,7 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,14 +38,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="21"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,8 +107,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F8F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF2F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -78,6 +151,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -87,25 +173,288 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,25 +750,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="23" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A1" s="2"/>
-    </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="201" customHeight="1">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="32" customHeight="1">
       <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="19" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:G8"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:L9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:N16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/table.xlsx
+++ b/server/table.xlsx
@@ -15,7 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +31,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -38,20 +45,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="37"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -59,6 +52,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="50"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="31"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="19"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -66,21 +87,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="29"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
+      <sz val="21"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,35 +108,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="21"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="33"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,14 +163,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFDDDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,11 +194,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,50 +219,161 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,67 +669,673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="3.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="142" customHeight="1">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="69" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="47" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="371" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="160" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="53" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+    </row>
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="50" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+    </row>
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="50" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+    </row>
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+    </row>
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="37" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="37" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+    </row>
+    <row r="13" spans="1:32" s="1" customFormat="1" ht="37" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+    </row>
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A14" s="51"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="15" spans="1:32" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="1:32" s="1" customFormat="1" ht="35" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="81">
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AB4:AF4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:AF5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="AB8:AF9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AF16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="U16:Y16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
